--- a/ARQ_CRC.xlsx
+++ b/ARQ_CRC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x1\Desktop\NIDUC_PROJEKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6FDB277-20DE-4D73-9762-A0CFDA8FAF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA7C06D-DFAD-43A1-A0A9-0754C81ECF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="7" xr2:uid="{D36A20DB-EDB9-4783-976E-74FC442C9BEB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D36A20DB-EDB9-4783-976E-74FC442C9BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2407,7 +2406,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D6CD-42AA-ABA1-F81E26509C53}"/>
                   </c:ext>
@@ -4306,7 +4305,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C240-496E-8A3F-D0ABB049F9C2}"/>
                   </c:ext>
@@ -4857,7 +4856,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C240-496E-8A3F-D0ABB049F9C2}"/>
                   </c:ext>
@@ -7226,7 +7225,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-835A-45AB-845C-F1865C2F1DF1}"/>
                   </c:ext>
@@ -9125,7 +9124,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-4597-426D-B3B5-AD0E82C619E3}"/>
                   </c:ext>
@@ -9676,7 +9675,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-4597-426D-B3B5-AD0E82C619E3}"/>
                   </c:ext>
@@ -12045,7 +12044,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-30CE-4392-BFEF-40BEEBB64B90}"/>
                   </c:ext>
@@ -13944,7 +13943,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-4786-415C-AF9D-B620BCEAEC93}"/>
                   </c:ext>
@@ -14495,7 +14494,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-4786-415C-AF9D-B620BCEAEC93}"/>
                   </c:ext>
@@ -16363,7 +16362,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FA96-4DC7-B24F-4EDA068F6D91}"/>
                   </c:ext>
@@ -16914,7 +16913,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FA96-4DC7-B24F-4EDA068F6D91}"/>
                   </c:ext>
@@ -19283,7 +19282,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0CEF-4F7F-A8C0-5EB6C7A8BE02}"/>
                   </c:ext>
@@ -21182,7 +21181,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A13C-4AF3-B2AB-8C87375F4641}"/>
                   </c:ext>
@@ -21733,7 +21732,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A13C-4AF3-B2AB-8C87375F4641}"/>
                   </c:ext>
@@ -24102,7 +24101,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-AB02-4515-A363-098F73E2FF4B}"/>
                   </c:ext>
@@ -26001,7 +26000,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2269-4197-A5B9-200D3C5E774B}"/>
                   </c:ext>
@@ -26552,7 +26551,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-2269-4197-A5B9-200D3C5E774B}"/>
                   </c:ext>
@@ -28921,7 +28920,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-79B6-4FE3-8657-C8D636072451}"/>
                   </c:ext>
@@ -30820,7 +30819,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-CE8A-4F26-8917-BDBAAE1F4D33}"/>
                   </c:ext>
@@ -31371,7 +31370,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-CE8A-4F26-8917-BDBAAE1F4D33}"/>
                   </c:ext>
@@ -33740,7 +33739,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-39C6-41CD-941E-8D7CDE5B0F6D}"/>
                   </c:ext>
@@ -43453,881 +43452,6 @@
           <cell r="B2">
             <v>190</v>
           </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>205</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>200</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>212</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>227</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>213</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>224</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>196</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>203</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>193</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>215</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>187</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>228</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>191</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>179</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>185</v>
-          </cell>
-          <cell r="C17">
-            <v>1</v>
-          </cell>
-          <cell r="D17">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>209</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>204</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>189</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>157</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>203</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>196</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>181</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>225</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>216</v>
-          </cell>
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>210</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>176</v>
-          </cell>
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-          <cell r="D28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>198</v>
-          </cell>
-          <cell r="C29">
-            <v>2</v>
-          </cell>
-          <cell r="D29">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>230</v>
-          </cell>
-          <cell r="C30">
-            <v>1</v>
-          </cell>
-          <cell r="D30">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>190</v>
-          </cell>
-          <cell r="C31">
-            <v>1</v>
-          </cell>
-          <cell r="D31">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>186</v>
-          </cell>
-          <cell r="C32">
-            <v>1</v>
-          </cell>
-          <cell r="D32">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>205</v>
-          </cell>
-          <cell r="C33">
-            <v>0</v>
-          </cell>
-          <cell r="D33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>221</v>
-          </cell>
-          <cell r="C34">
-            <v>1</v>
-          </cell>
-          <cell r="D34">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>177</v>
-          </cell>
-          <cell r="C35">
-            <v>1</v>
-          </cell>
-          <cell r="D35">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>234</v>
-          </cell>
-          <cell r="C36">
-            <v>1</v>
-          </cell>
-          <cell r="D36">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>192</v>
-          </cell>
-          <cell r="C37">
-            <v>2</v>
-          </cell>
-          <cell r="D37">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>184</v>
-          </cell>
-          <cell r="C38">
-            <v>1</v>
-          </cell>
-          <cell r="D38">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>184</v>
-          </cell>
-          <cell r="C39">
-            <v>2</v>
-          </cell>
-          <cell r="D39">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>184</v>
-          </cell>
-          <cell r="C40">
-            <v>4</v>
-          </cell>
-          <cell r="D40">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>207</v>
-          </cell>
-          <cell r="C41">
-            <v>6</v>
-          </cell>
-          <cell r="D41">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>228</v>
-          </cell>
-          <cell r="C42">
-            <v>9</v>
-          </cell>
-          <cell r="D42">
-            <v>4.5</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>191</v>
-          </cell>
-          <cell r="C43">
-            <v>2</v>
-          </cell>
-          <cell r="D43">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>190</v>
-          </cell>
-          <cell r="C44">
-            <v>7</v>
-          </cell>
-          <cell r="D44">
-            <v>3.5</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>183</v>
-          </cell>
-          <cell r="C45">
-            <v>5</v>
-          </cell>
-          <cell r="D45">
-            <v>2.5</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>184</v>
-          </cell>
-          <cell r="C46">
-            <v>11</v>
-          </cell>
-          <cell r="D46">
-            <v>5.5</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>219</v>
-          </cell>
-          <cell r="C47">
-            <v>11</v>
-          </cell>
-          <cell r="D47">
-            <v>5.5</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>228</v>
-          </cell>
-          <cell r="C48">
-            <v>8</v>
-          </cell>
-          <cell r="D48">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>201</v>
-          </cell>
-          <cell r="C49">
-            <v>13</v>
-          </cell>
-          <cell r="D49">
-            <v>6.5</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>206</v>
-          </cell>
-          <cell r="C50">
-            <v>12</v>
-          </cell>
-          <cell r="D50">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>175</v>
-          </cell>
-          <cell r="C51">
-            <v>15</v>
-          </cell>
-          <cell r="D51">
-            <v>7.5</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>235</v>
-          </cell>
-          <cell r="C52">
-            <v>13</v>
-          </cell>
-          <cell r="D52">
-            <v>6.5</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>221</v>
-          </cell>
-          <cell r="C53">
-            <v>18</v>
-          </cell>
-          <cell r="D53">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>213</v>
-          </cell>
-          <cell r="C54">
-            <v>18</v>
-          </cell>
-          <cell r="D54">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>188</v>
-          </cell>
-          <cell r="C55">
-            <v>23</v>
-          </cell>
-          <cell r="D55">
-            <v>11.5</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>180</v>
-          </cell>
-          <cell r="C56">
-            <v>26</v>
-          </cell>
-          <cell r="D56">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>204</v>
-          </cell>
-          <cell r="C57">
-            <v>30</v>
-          </cell>
-          <cell r="D57">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>170</v>
-          </cell>
-          <cell r="C58">
-            <v>31</v>
-          </cell>
-          <cell r="D58">
-            <v>15.5</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>210</v>
-          </cell>
-          <cell r="C59">
-            <v>41</v>
-          </cell>
-          <cell r="D59">
-            <v>20.5</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>189</v>
-          </cell>
-          <cell r="C60">
-            <v>43</v>
-          </cell>
-          <cell r="D60">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>214</v>
-          </cell>
-          <cell r="C61">
-            <v>42</v>
-          </cell>
-          <cell r="D61">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>203</v>
-          </cell>
-          <cell r="C62">
-            <v>50</v>
-          </cell>
-          <cell r="D62">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>191</v>
-          </cell>
-          <cell r="C63">
-            <v>57</v>
-          </cell>
-          <cell r="D63">
-            <v>28.5</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>172</v>
-          </cell>
-          <cell r="C64">
-            <v>57</v>
-          </cell>
-          <cell r="D64">
-            <v>28.5</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>185</v>
-          </cell>
-          <cell r="C65">
-            <v>75</v>
-          </cell>
-          <cell r="D65">
-            <v>37.5</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>204</v>
-          </cell>
-          <cell r="C66">
-            <v>76</v>
-          </cell>
-          <cell r="D66">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>182</v>
-          </cell>
-          <cell r="C67">
-            <v>85</v>
-          </cell>
-          <cell r="D67">
-            <v>42.5</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>181</v>
-          </cell>
-          <cell r="C68">
-            <v>80</v>
-          </cell>
-          <cell r="D68">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>184</v>
-          </cell>
-          <cell r="C69">
-            <v>105</v>
-          </cell>
-          <cell r="D69">
-            <v>52.5</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>171</v>
-          </cell>
-          <cell r="C70">
-            <v>120</v>
-          </cell>
-          <cell r="D70">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>172</v>
-          </cell>
-          <cell r="C71">
-            <v>140</v>
-          </cell>
-          <cell r="D71">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>146</v>
-          </cell>
-          <cell r="C72">
-            <v>147</v>
-          </cell>
-          <cell r="D72">
-            <v>73.5</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>123</v>
-          </cell>
-          <cell r="C73">
-            <v>152</v>
-          </cell>
-          <cell r="D73">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>121</v>
-          </cell>
-          <cell r="C74">
-            <v>161</v>
-          </cell>
-          <cell r="D74">
-            <v>80.5</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>131</v>
-          </cell>
-          <cell r="C75">
-            <v>169</v>
-          </cell>
-          <cell r="D75">
-            <v>84.5</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>96</v>
-          </cell>
-          <cell r="C76">
-            <v>180</v>
-          </cell>
-          <cell r="D76">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>92</v>
-          </cell>
-          <cell r="C77">
-            <v>178</v>
-          </cell>
-          <cell r="D77">
-            <v>89</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>65</v>
-          </cell>
-          <cell r="C78">
-            <v>186</v>
-          </cell>
-          <cell r="D78">
-            <v>93</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>55</v>
-          </cell>
-          <cell r="C79">
-            <v>191</v>
-          </cell>
-          <cell r="D79">
-            <v>95.5</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>22</v>
-          </cell>
-          <cell r="C80">
-            <v>199</v>
-          </cell>
-          <cell r="D80">
-            <v>99.5</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>16</v>
-          </cell>
-          <cell r="C81">
-            <v>196</v>
-          </cell>
-          <cell r="D81">
-            <v>98</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3" refreshError="1"/>
@@ -44823,14 +43947,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC229A0-7A67-4F39-A52C-DF8492E166EC}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -44887,7 +44011,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.8</v>
       </c>
       <c r="B2">
@@ -44896,12 +44020,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.79</v>
       </c>
       <c r="B3">
@@ -44910,12 +44034,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.78</v>
       </c>
       <c r="B4">
@@ -44924,12 +44048,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.77</v>
       </c>
       <c r="B5">
@@ -44938,12 +44062,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.76</v>
       </c>
       <c r="B6">
@@ -44952,12 +44076,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7">
@@ -44966,12 +44090,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.74</v>
       </c>
       <c r="B8">
@@ -44980,12 +44104,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.73</v>
       </c>
       <c r="B9">
@@ -44994,12 +44118,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.72</v>
       </c>
       <c r="B10">
@@ -45008,12 +44132,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.71</v>
       </c>
       <c r="B11">
@@ -45022,12 +44146,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.7</v>
       </c>
       <c r="B12">
@@ -45036,12 +44160,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.69</v>
       </c>
       <c r="B13">
@@ -45050,12 +44174,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.68</v>
       </c>
       <c r="B14">
@@ -45064,12 +44188,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>0.67</v>
       </c>
       <c r="B15">
@@ -45078,12 +44202,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>0.66</v>
       </c>
       <c r="B16">
@@ -45092,12 +44216,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
@@ -45106,12 +44230,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>0.64</v>
       </c>
       <c r="B18">
@@ -45120,12 +44244,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>0.63</v>
       </c>
       <c r="B19">
@@ -45134,12 +44258,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>0.62</v>
       </c>
       <c r="B20">
@@ -45148,12 +44272,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>0.61</v>
       </c>
       <c r="B21">
@@ -45162,12 +44286,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>0.6</v>
       </c>
       <c r="B22">
@@ -45176,12 +44300,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>0.59</v>
       </c>
       <c r="B23">
@@ -45190,12 +44314,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>0.57999999999999996</v>
       </c>
       <c r="B24">
@@ -45204,12 +44328,12 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>0.56999999999999995</v>
       </c>
       <c r="B25">
@@ -45218,12 +44342,12 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>0.56000000000000005</v>
       </c>
       <c r="B26">
@@ -45232,12 +44356,12 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>0.55000000000000004</v>
       </c>
       <c r="B27">
@@ -45246,12 +44370,12 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>0.54</v>
       </c>
       <c r="B28">
@@ -45260,12 +44384,12 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>0.53</v>
       </c>
       <c r="B29">
@@ -45274,12 +44398,12 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>0.52</v>
       </c>
       <c r="B30">
@@ -45288,12 +44412,12 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>0.51</v>
       </c>
       <c r="B31">
@@ -45302,12 +44426,12 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32">
@@ -45316,12 +44440,12 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>0.49</v>
       </c>
       <c r="B33">
@@ -45330,12 +44454,12 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>0.48</v>
       </c>
       <c r="B34">
@@ -45344,12 +44468,12 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>0.47</v>
       </c>
       <c r="B35">
@@ -45358,12 +44482,12 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>0.46</v>
       </c>
       <c r="B36">
@@ -45372,12 +44496,12 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>0.45</v>
       </c>
       <c r="B37">
@@ -45386,12 +44510,12 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>0.44</v>
       </c>
       <c r="B38">
@@ -45400,12 +44524,12 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>0.43</v>
       </c>
       <c r="B39">
@@ -45414,12 +44538,12 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>0.42</v>
       </c>
       <c r="B40">
@@ -45428,12 +44552,12 @@
       <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>0.41</v>
       </c>
       <c r="B41">
@@ -45442,12 +44566,12 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
@@ -45456,12 +44580,12 @@
       <c r="C42">
         <v>3</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>0.39</v>
       </c>
       <c r="B43">
@@ -45470,12 +44594,12 @@
       <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>0.38</v>
       </c>
       <c r="B44">
@@ -45484,12 +44608,12 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>0.37</v>
       </c>
       <c r="B45">
@@ -45498,12 +44622,12 @@
       <c r="C45">
         <v>8</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>0.36</v>
       </c>
       <c r="B46">
@@ -45512,12 +44636,12 @@
       <c r="C46">
         <v>13</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>0.35</v>
       </c>
       <c r="B47">
@@ -45526,12 +44650,12 @@
       <c r="C47">
         <v>10</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>0.34</v>
       </c>
       <c r="B48">
@@ -45540,12 +44664,12 @@
       <c r="C48">
         <v>14</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>0.33</v>
       </c>
       <c r="B49">
@@ -45554,12 +44678,12 @@
       <c r="C49">
         <v>20</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>0.32</v>
       </c>
       <c r="B50">
@@ -45568,12 +44692,12 @@
       <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>0.31</v>
       </c>
       <c r="B51">
@@ -45582,12 +44706,12 @@
       <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>0.3</v>
       </c>
       <c r="B52">
@@ -45596,12 +44720,12 @@
       <c r="C52">
         <v>20</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>0.28999999999999998</v>
       </c>
       <c r="B53">
@@ -45610,12 +44734,12 @@
       <c r="C53">
         <v>16</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>0.28000000000000003</v>
       </c>
       <c r="B54">
@@ -45624,12 +44748,12 @@
       <c r="C54">
         <v>34</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>0.27</v>
       </c>
       <c r="B55">
@@ -45638,12 +44762,12 @@
       <c r="C55">
         <v>30</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>0.26</v>
       </c>
       <c r="B56">
@@ -45652,12 +44776,12 @@
       <c r="C56">
         <v>35</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>0.25</v>
       </c>
       <c r="B57">
@@ -45666,12 +44790,12 @@
       <c r="C57">
         <v>45</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>0.24</v>
       </c>
       <c r="B58">
@@ -45680,12 +44804,12 @@
       <c r="C58">
         <v>44</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>0.23</v>
       </c>
       <c r="B59">
@@ -45694,12 +44818,12 @@
       <c r="C59">
         <v>44</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>0.22</v>
       </c>
       <c r="B60">
@@ -45708,12 +44832,12 @@
       <c r="C60">
         <v>46</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>0.21</v>
       </c>
       <c r="B61">
@@ -45722,12 +44846,12 @@
       <c r="C61">
         <v>52</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>0.2</v>
       </c>
       <c r="B62">
@@ -45736,12 +44860,12 @@
       <c r="C62">
         <v>47</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>0.19</v>
       </c>
       <c r="B63">
@@ -45750,12 +44874,12 @@
       <c r="C63">
         <v>42</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>0.18</v>
       </c>
       <c r="B64">
@@ -45764,12 +44888,12 @@
       <c r="C64">
         <v>46</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>0.17</v>
       </c>
       <c r="B65">
@@ -45778,12 +44902,12 @@
       <c r="C65">
         <v>44</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>0.16</v>
       </c>
       <c r="B66">
@@ -45792,12 +44916,12 @@
       <c r="C66">
         <v>49</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>0.15</v>
       </c>
       <c r="B67">
@@ -45806,12 +44930,12 @@
       <c r="C67">
         <v>42</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>0.14000000000000001</v>
       </c>
       <c r="B68">
@@ -45820,12 +44944,12 @@
       <c r="C68">
         <v>55</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>0.13</v>
       </c>
       <c r="B69">
@@ -45834,12 +44958,12 @@
       <c r="C69">
         <v>49</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>0.12</v>
       </c>
       <c r="B70">
@@ -45848,12 +44972,12 @@
       <c r="C70">
         <v>49</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>0.11</v>
       </c>
       <c r="B71">
@@ -45862,12 +44986,12 @@
       <c r="C71">
         <v>50</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>0.1</v>
       </c>
       <c r="B72">
@@ -45876,12 +45000,12 @@
       <c r="C72">
         <v>59</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>0.09</v>
       </c>
       <c r="B73">
@@ -45890,12 +45014,12 @@
       <c r="C73">
         <v>52</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>0.08</v>
       </c>
       <c r="B74">
@@ -45904,12 +45028,12 @@
       <c r="C74">
         <v>51</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B75">
@@ -45918,12 +45042,12 @@
       <c r="C75">
         <v>47</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>0.06</v>
       </c>
       <c r="B76">
@@ -45932,12 +45056,12 @@
       <c r="C76">
         <v>54</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>0.05</v>
       </c>
       <c r="B77">
@@ -45946,12 +45070,12 @@
       <c r="C77">
         <v>58</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>0.04</v>
       </c>
       <c r="B78">
@@ -45960,12 +45084,12 @@
       <c r="C78">
         <v>54</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>0.03</v>
       </c>
       <c r="B79">
@@ -45974,12 +45098,12 @@
       <c r="C79">
         <v>51</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>0.02</v>
       </c>
       <c r="B80">
@@ -45988,12 +45112,12 @@
       <c r="C80">
         <v>51</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>0.01</v>
       </c>
       <c r="B81">
@@ -46002,7 +45126,7 @@
       <c r="C81">
         <v>50</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>50</v>
       </c>
     </row>
@@ -46043,7 +45167,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.8</v>
       </c>
       <c r="B2">
@@ -46052,12 +45176,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.79</v>
       </c>
       <c r="B3">
@@ -46066,12 +45190,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.78</v>
       </c>
       <c r="B4">
@@ -46080,12 +45204,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.77</v>
       </c>
       <c r="B5">
@@ -46094,12 +45218,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.76</v>
       </c>
       <c r="B6">
@@ -46108,12 +45232,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7">
@@ -46122,12 +45246,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.74</v>
       </c>
       <c r="B8">
@@ -46136,12 +45260,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.73</v>
       </c>
       <c r="B9">
@@ -46150,12 +45274,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.72</v>
       </c>
       <c r="B10">
@@ -46164,12 +45288,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.71</v>
       </c>
       <c r="B11">
@@ -46178,12 +45302,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.7</v>
       </c>
       <c r="B12">
@@ -46192,12 +45316,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.69</v>
       </c>
       <c r="B13">
@@ -46206,12 +45330,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.68</v>
       </c>
       <c r="B14">
@@ -46220,12 +45344,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>0.67</v>
       </c>
       <c r="B15">
@@ -46234,12 +45358,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>0.66</v>
       </c>
       <c r="B16">
@@ -46248,12 +45372,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
@@ -46262,12 +45386,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>0.64</v>
       </c>
       <c r="B18">
@@ -46276,12 +45400,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>0.63</v>
       </c>
       <c r="B19">
@@ -46290,12 +45414,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>0.62</v>
       </c>
       <c r="B20">
@@ -46304,12 +45428,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>0.61</v>
       </c>
       <c r="B21">
@@ -46318,12 +45442,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>0.6</v>
       </c>
       <c r="B22">
@@ -46332,12 +45456,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>0.59</v>
       </c>
       <c r="B23">
@@ -46346,12 +45470,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>0.57999999999999996</v>
       </c>
       <c r="B24">
@@ -46360,12 +45484,12 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>0.56999999999999995</v>
       </c>
       <c r="B25">
@@ -46374,12 +45498,12 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>0.56000000000000005</v>
       </c>
       <c r="B26">
@@ -46388,12 +45512,12 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>0.55000000000000004</v>
       </c>
       <c r="B27">
@@ -46402,12 +45526,12 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>0.54</v>
       </c>
       <c r="B28">
@@ -46416,12 +45540,12 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>0.53</v>
       </c>
       <c r="B29">
@@ -46430,12 +45554,12 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>0.52</v>
       </c>
       <c r="B30">
@@ -46444,12 +45568,12 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>0.51</v>
       </c>
       <c r="B31">
@@ -46458,12 +45582,12 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32">
@@ -46472,12 +45596,12 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>0.49</v>
       </c>
       <c r="B33">
@@ -46486,12 +45610,12 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>0.48</v>
       </c>
       <c r="B34">
@@ -46500,12 +45624,12 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>0.47</v>
       </c>
       <c r="B35">
@@ -46514,12 +45638,12 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>0.46</v>
       </c>
       <c r="B36">
@@ -46528,12 +45652,12 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>0.45</v>
       </c>
       <c r="B37">
@@ -46542,12 +45666,12 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>0.44</v>
       </c>
       <c r="B38">
@@ -46556,12 +45680,12 @@
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>0.43</v>
       </c>
       <c r="B39">
@@ -46570,12 +45694,12 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>0.42</v>
       </c>
       <c r="B40">
@@ -46584,12 +45708,12 @@
       <c r="C40">
         <v>7</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>3.5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>0.41</v>
       </c>
       <c r="B41">
@@ -46598,12 +45722,12 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
@@ -46612,12 +45736,12 @@
       <c r="C42">
         <v>8</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>0.39</v>
       </c>
       <c r="B43">
@@ -46626,12 +45750,12 @@
       <c r="C43">
         <v>10</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>0.38</v>
       </c>
       <c r="B44">
@@ -46640,12 +45764,12 @@
       <c r="C44">
         <v>10</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>0.37</v>
       </c>
       <c r="B45">
@@ -46654,12 +45778,12 @@
       <c r="C45">
         <v>14</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>0.36</v>
       </c>
       <c r="B46">
@@ -46668,12 +45792,12 @@
       <c r="C46">
         <v>19</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>9.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>0.35</v>
       </c>
       <c r="B47">
@@ -46682,12 +45806,12 @@
       <c r="C47">
         <v>17</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>8.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>0.34</v>
       </c>
       <c r="B48">
@@ -46696,12 +45820,12 @@
       <c r="C48">
         <v>24</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>0.33</v>
       </c>
       <c r="B49">
@@ -46710,12 +45834,12 @@
       <c r="C49">
         <v>32</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>0.32</v>
       </c>
       <c r="B50">
@@ -46724,12 +45848,12 @@
       <c r="C50">
         <v>33</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>16.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>0.31</v>
       </c>
       <c r="B51">
@@ -46738,12 +45862,12 @@
       <c r="C51">
         <v>37</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>18.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>0.3</v>
       </c>
       <c r="B52">
@@ -46752,12 +45876,12 @@
       <c r="C52">
         <v>59</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>29.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>0.28999999999999998</v>
       </c>
       <c r="B53">
@@ -46766,12 +45890,12 @@
       <c r="C53">
         <v>50</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>0.28000000000000003</v>
       </c>
       <c r="B54">
@@ -46780,12 +45904,12 @@
       <c r="C54">
         <v>56</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>0.27</v>
       </c>
       <c r="B55">
@@ -46794,12 +45918,12 @@
       <c r="C55">
         <v>73</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>36.5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>0.26</v>
       </c>
       <c r="B56">
@@ -46808,12 +45932,12 @@
       <c r="C56">
         <v>75</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>37.5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>0.25</v>
       </c>
       <c r="B57">
@@ -46822,12 +45946,12 @@
       <c r="C57">
         <v>82</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>0.24</v>
       </c>
       <c r="B58">
@@ -46836,12 +45960,12 @@
       <c r="C58">
         <v>90</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>0.23</v>
       </c>
       <c r="B59">
@@ -46850,12 +45974,12 @@
       <c r="C59">
         <v>86</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>0.22</v>
       </c>
       <c r="B60">
@@ -46864,12 +45988,12 @@
       <c r="C60">
         <v>101</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>50.5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>0.21</v>
       </c>
       <c r="B61">
@@ -46878,12 +46002,12 @@
       <c r="C61">
         <v>91</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>45.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>0.2</v>
       </c>
       <c r="B62">
@@ -46892,12 +46016,12 @@
       <c r="C62">
         <v>89</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>44.5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>0.19</v>
       </c>
       <c r="B63">
@@ -46906,12 +46030,12 @@
       <c r="C63">
         <v>95</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>47.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>0.18</v>
       </c>
       <c r="B64">
@@ -46920,12 +46044,12 @@
       <c r="C64">
         <v>88</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>0.17</v>
       </c>
       <c r="B65">
@@ -46934,12 +46058,12 @@
       <c r="C65">
         <v>104</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>0.16</v>
       </c>
       <c r="B66">
@@ -46948,12 +46072,12 @@
       <c r="C66">
         <v>99</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>49.5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>0.15</v>
       </c>
       <c r="B67">
@@ -46962,12 +46086,12 @@
       <c r="C67">
         <v>90</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>0.14000000000000001</v>
       </c>
       <c r="B68">
@@ -46976,12 +46100,12 @@
       <c r="C68">
         <v>100</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>0.13</v>
       </c>
       <c r="B69">
@@ -46990,12 +46114,12 @@
       <c r="C69">
         <v>101</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>50.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>0.12</v>
       </c>
       <c r="B70">
@@ -47004,12 +46128,12 @@
       <c r="C70">
         <v>103</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>51.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>0.11</v>
       </c>
       <c r="B71">
@@ -47018,12 +46142,12 @@
       <c r="C71">
         <v>99</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>49.5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>0.1</v>
       </c>
       <c r="B72">
@@ -47032,12 +46156,12 @@
       <c r="C72">
         <v>96</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>0.09</v>
       </c>
       <c r="B73">
@@ -47046,12 +46170,12 @@
       <c r="C73">
         <v>114</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>0.08</v>
       </c>
       <c r="B74">
@@ -47060,12 +46184,12 @@
       <c r="C74">
         <v>95</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>47.5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B75">
@@ -47074,12 +46198,12 @@
       <c r="C75">
         <v>104</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>0.06</v>
       </c>
       <c r="B76">
@@ -47088,12 +46212,12 @@
       <c r="C76">
         <v>99</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>49.5</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>0.05</v>
       </c>
       <c r="B77">
@@ -47102,12 +46226,12 @@
       <c r="C77">
         <v>102</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>0.04</v>
       </c>
       <c r="B78">
@@ -47116,12 +46240,12 @@
       <c r="C78">
         <v>93</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>46.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>0.03</v>
       </c>
       <c r="B79">
@@ -47130,12 +46254,12 @@
       <c r="C79">
         <v>105</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>52.5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>0.02</v>
       </c>
       <c r="B80">
@@ -47144,12 +46268,12 @@
       <c r="C80">
         <v>104</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>0.01</v>
       </c>
       <c r="B81">
@@ -47158,7 +46282,7 @@
       <c r="C81">
         <v>99</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>49.5</v>
       </c>
     </row>
@@ -47199,7 +46323,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.8</v>
       </c>
       <c r="B2">
@@ -47208,12 +46332,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.79</v>
       </c>
       <c r="B3">
@@ -47222,12 +46346,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.78</v>
       </c>
       <c r="B4">
@@ -47236,12 +46360,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.77</v>
       </c>
       <c r="B5">
@@ -47250,12 +46374,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.76</v>
       </c>
       <c r="B6">
@@ -47264,12 +46388,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7">
@@ -47278,12 +46402,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.74</v>
       </c>
       <c r="B8">
@@ -47292,12 +46416,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.73</v>
       </c>
       <c r="B9">
@@ -47306,12 +46430,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.72</v>
       </c>
       <c r="B10">
@@ -47320,12 +46444,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.71</v>
       </c>
       <c r="B11">
@@ -47334,12 +46458,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.7</v>
       </c>
       <c r="B12">
@@ -47348,12 +46472,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.69</v>
       </c>
       <c r="B13">
@@ -47362,12 +46486,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.68</v>
       </c>
       <c r="B14">
@@ -47376,12 +46500,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>0.67</v>
       </c>
       <c r="B15">
@@ -47390,12 +46514,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>0.66</v>
       </c>
       <c r="B16">
@@ -47404,12 +46528,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
@@ -47418,12 +46542,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>0.64</v>
       </c>
       <c r="B18">
@@ -47432,12 +46556,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>0.63</v>
       </c>
       <c r="B19">
@@ -47446,12 +46570,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>0.62</v>
       </c>
       <c r="B20">
@@ -47460,12 +46584,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>0.61</v>
       </c>
       <c r="B21">
@@ -47474,12 +46598,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>0.6</v>
       </c>
       <c r="B22">
@@ -47488,12 +46612,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>0.59</v>
       </c>
       <c r="B23">
@@ -47502,12 +46626,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>0.57999999999999996</v>
       </c>
       <c r="B24">
@@ -47516,12 +46640,12 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>0.56999999999999995</v>
       </c>
       <c r="B25">
@@ -47530,12 +46654,12 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>0.56000000000000005</v>
       </c>
       <c r="B26">
@@ -47544,12 +46668,12 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>0.55000000000000004</v>
       </c>
       <c r="B27">
@@ -47558,12 +46682,12 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>0.54</v>
       </c>
       <c r="B28">
@@ -47572,12 +46696,12 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>0.53</v>
       </c>
       <c r="B29">
@@ -47586,12 +46710,12 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>0.52</v>
       </c>
       <c r="B30">
@@ -47600,12 +46724,12 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>0.51</v>
       </c>
       <c r="B31">
@@ -47614,12 +46738,12 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0.33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32">
@@ -47628,12 +46752,12 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>0.49</v>
       </c>
       <c r="B33">
@@ -47642,12 +46766,12 @@
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>0.48</v>
       </c>
       <c r="B34">
@@ -47656,12 +46780,12 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>0.47</v>
       </c>
       <c r="B35">
@@ -47670,12 +46794,12 @@
       <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>1.67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>0.46</v>
       </c>
       <c r="B36">
@@ -47684,12 +46808,12 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>0.45</v>
       </c>
       <c r="B37">
@@ -47698,12 +46822,12 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>1.33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>0.44</v>
       </c>
       <c r="B38">
@@ -47712,12 +46836,12 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>0.43</v>
       </c>
       <c r="B39">
@@ -47726,12 +46850,12 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>0.42</v>
       </c>
       <c r="B40">
@@ -47740,12 +46864,12 @@
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>1.67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>0.41</v>
       </c>
       <c r="B41">
@@ -47754,12 +46878,12 @@
       <c r="C41">
         <v>7</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>2.33</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
@@ -47768,12 +46892,12 @@
       <c r="C42">
         <v>12</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>0.39</v>
       </c>
       <c r="B43">
@@ -47782,12 +46906,12 @@
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>2.67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>0.38</v>
       </c>
       <c r="B44">
@@ -47796,12 +46920,12 @@
       <c r="C44">
         <v>17</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>5.67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>0.37</v>
       </c>
       <c r="B45">
@@ -47810,12 +46934,12 @@
       <c r="C45">
         <v>23</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>7.67</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>0.36</v>
       </c>
       <c r="B46">
@@ -47824,12 +46948,12 @@
       <c r="C46">
         <v>31</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>10.33</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>0.35</v>
       </c>
       <c r="B47">
@@ -47838,12 +46962,12 @@
       <c r="C47">
         <v>32</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>10.67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>0.34</v>
       </c>
       <c r="B48">
@@ -47852,12 +46976,12 @@
       <c r="C48">
         <v>32</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>10.67</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>0.33</v>
       </c>
       <c r="B49">
@@ -47866,12 +46990,12 @@
       <c r="C49">
         <v>62</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>20.67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>0.32</v>
       </c>
       <c r="B50">
@@ -47880,12 +47004,12 @@
       <c r="C50">
         <v>62</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>20.67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>0.31</v>
       </c>
       <c r="B51">
@@ -47894,12 +47018,12 @@
       <c r="C51">
         <v>72</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>0.3</v>
       </c>
       <c r="B52">
@@ -47908,12 +47032,12 @@
       <c r="C52">
         <v>66</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>0.28999999999999998</v>
       </c>
       <c r="B53">
@@ -47922,12 +47046,12 @@
       <c r="C53">
         <v>86</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>28.67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>0.28000000000000003</v>
       </c>
       <c r="B54">
@@ -47936,12 +47060,12 @@
       <c r="C54">
         <v>109</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>36.33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>0.27</v>
       </c>
       <c r="B55">
@@ -47950,12 +47074,12 @@
       <c r="C55">
         <v>108</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>0.26</v>
       </c>
       <c r="B56">
@@ -47964,12 +47088,12 @@
       <c r="C56">
         <v>97</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>32.33</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>0.25</v>
       </c>
       <c r="B57">
@@ -47978,12 +47102,12 @@
       <c r="C57">
         <v>138</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>0.24</v>
       </c>
       <c r="B58">
@@ -47992,12 +47116,12 @@
       <c r="C58">
         <v>132</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>0.23</v>
       </c>
       <c r="B59">
@@ -48006,12 +47130,12 @@
       <c r="C59">
         <v>110</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>36.67</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>0.22</v>
       </c>
       <c r="B60">
@@ -48020,12 +47144,12 @@
       <c r="C60">
         <v>127</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>42.33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>0.21</v>
       </c>
       <c r="B61">
@@ -48034,12 +47158,12 @@
       <c r="C61">
         <v>117</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>0.2</v>
       </c>
       <c r="B62">
@@ -48048,12 +47172,12 @@
       <c r="C62">
         <v>145</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>48.33</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>0.19</v>
       </c>
       <c r="B63">
@@ -48062,12 +47186,12 @@
       <c r="C63">
         <v>148</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>49.33</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>0.18</v>
       </c>
       <c r="B64">
@@ -48076,12 +47200,12 @@
       <c r="C64">
         <v>149</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>49.67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>0.17</v>
       </c>
       <c r="B65">
@@ -48090,12 +47214,12 @@
       <c r="C65">
         <v>142</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>47.33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>0.16</v>
       </c>
       <c r="B66">
@@ -48104,12 +47228,12 @@
       <c r="C66">
         <v>147</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>0.15</v>
       </c>
       <c r="B67">
@@ -48118,12 +47242,12 @@
       <c r="C67">
         <v>127</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>42.33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>0.14000000000000001</v>
       </c>
       <c r="B68">
@@ -48132,12 +47256,12 @@
       <c r="C68">
         <v>145</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>48.33</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>0.13</v>
       </c>
       <c r="B69">
@@ -48146,12 +47270,12 @@
       <c r="C69">
         <v>155</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>51.67</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>0.12</v>
       </c>
       <c r="B70">
@@ -48160,12 +47284,12 @@
       <c r="C70">
         <v>162</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>0.11</v>
       </c>
       <c r="B71">
@@ -48174,12 +47298,12 @@
       <c r="C71">
         <v>147</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>0.1</v>
       </c>
       <c r="B72">
@@ -48188,12 +47312,12 @@
       <c r="C72">
         <v>154</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>51.33</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>0.09</v>
       </c>
       <c r="B73">
@@ -48202,12 +47326,12 @@
       <c r="C73">
         <v>146</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>48.67</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>0.08</v>
       </c>
       <c r="B74">
@@ -48216,12 +47340,12 @@
       <c r="C74">
         <v>144</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B75">
@@ -48230,12 +47354,12 @@
       <c r="C75">
         <v>147</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>0.06</v>
       </c>
       <c r="B76">
@@ -48244,12 +47368,12 @@
       <c r="C76">
         <v>155</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>51.67</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>0.05</v>
       </c>
       <c r="B77">
@@ -48258,12 +47382,12 @@
       <c r="C77">
         <v>132</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>0.04</v>
       </c>
       <c r="B78">
@@ -48272,12 +47396,12 @@
       <c r="C78">
         <v>159</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>0.03</v>
       </c>
       <c r="B79">
@@ -48286,12 +47410,12 @@
       <c r="C79">
         <v>140</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>46.67</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>0.02</v>
       </c>
       <c r="B80">
@@ -48300,12 +47424,12 @@
       <c r="C80">
         <v>146</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>48.67</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>0.01</v>
       </c>
       <c r="B81">
@@ -48314,7 +47438,7 @@
       <c r="C81">
         <v>146</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>48.67</v>
       </c>
     </row>
@@ -48355,7 +47479,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.8</v>
       </c>
       <c r="B2">
@@ -48364,12 +47488,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.79</v>
       </c>
       <c r="B3">
@@ -48378,12 +47502,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.78</v>
       </c>
       <c r="B4">
@@ -48392,12 +47516,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.77</v>
       </c>
       <c r="B5">
@@ -48406,12 +47530,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.76</v>
       </c>
       <c r="B6">
@@ -48420,12 +47544,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7">
@@ -48434,12 +47558,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.74</v>
       </c>
       <c r="B8">
@@ -48448,12 +47572,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.73</v>
       </c>
       <c r="B9">
@@ -48462,12 +47586,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.72</v>
       </c>
       <c r="B10">
@@ -48476,12 +47600,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.71</v>
       </c>
       <c r="B11">
@@ -48490,12 +47614,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.7</v>
       </c>
       <c r="B12">
@@ -48504,12 +47628,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.69</v>
       </c>
       <c r="B13">
@@ -48518,12 +47642,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.68</v>
       </c>
       <c r="B14">
@@ -48532,12 +47656,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>0.67</v>
       </c>
       <c r="B15">
@@ -48546,12 +47670,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>0.66</v>
       </c>
       <c r="B16">
@@ -48560,12 +47684,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
@@ -48574,12 +47698,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>0.64</v>
       </c>
       <c r="B18">
@@ -48588,12 +47712,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>0.63</v>
       </c>
       <c r="B19">
@@ -48602,12 +47726,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>0.62</v>
       </c>
       <c r="B20">
@@ -48616,12 +47740,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>0.61</v>
       </c>
       <c r="B21">
@@ -48630,12 +47754,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>0.6</v>
       </c>
       <c r="B22">
@@ -48644,12 +47768,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>0.59</v>
       </c>
       <c r="B23">
@@ -48658,12 +47782,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>0.57999999999999996</v>
       </c>
       <c r="B24">
@@ -48672,12 +47796,12 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>0.56999999999999995</v>
       </c>
       <c r="B25">
@@ -48686,12 +47810,12 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>0.56000000000000005</v>
       </c>
       <c r="B26">
@@ -48700,12 +47824,12 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>0.55000000000000004</v>
       </c>
       <c r="B27">
@@ -48714,12 +47838,12 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>0.54</v>
       </c>
       <c r="B28">
@@ -48728,12 +47852,12 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>0.53</v>
       </c>
       <c r="B29">
@@ -48742,12 +47866,12 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>0.52</v>
       </c>
       <c r="B30">
@@ -48756,12 +47880,12 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>0.51</v>
       </c>
       <c r="B31">
@@ -48770,12 +47894,12 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32">
@@ -48784,12 +47908,12 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>0.49</v>
       </c>
       <c r="B33">
@@ -48798,12 +47922,12 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>0.48</v>
       </c>
       <c r="B34">
@@ -48812,12 +47936,12 @@
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>0.47</v>
       </c>
       <c r="B35">
@@ -48826,12 +47950,12 @@
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>0.46</v>
       </c>
       <c r="B36">
@@ -48840,12 +47964,12 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>0.45</v>
       </c>
       <c r="B37">
@@ -48854,12 +47978,12 @@
       <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>0.44</v>
       </c>
       <c r="B38">
@@ -48868,12 +47992,12 @@
       <c r="C38">
         <v>13</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1.3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>0.43</v>
       </c>
       <c r="B39">
@@ -48882,12 +48006,12 @@
       <c r="C39">
         <v>19</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>1.9</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>0.42</v>
       </c>
       <c r="B40">
@@ -48896,12 +48020,12 @@
       <c r="C40">
         <v>26</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>2.6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>0.41</v>
       </c>
       <c r="B41">
@@ -48910,12 +48034,12 @@
       <c r="C41">
         <v>34</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>3.4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
@@ -48924,12 +48048,12 @@
       <c r="C42">
         <v>37</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>3.7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>0.39</v>
       </c>
       <c r="B43">
@@ -48938,12 +48062,12 @@
       <c r="C43">
         <v>37</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>3.7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>0.38</v>
       </c>
       <c r="B44">
@@ -48952,12 +48076,12 @@
       <c r="C44">
         <v>55</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>5.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>0.37</v>
       </c>
       <c r="B45">
@@ -48966,12 +48090,12 @@
       <c r="C45">
         <v>87</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>0.36</v>
       </c>
       <c r="B46">
@@ -48980,12 +48104,12 @@
       <c r="C46">
         <v>86</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>8.6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>0.35</v>
       </c>
       <c r="B47">
@@ -48994,12 +48118,12 @@
       <c r="C47">
         <v>115</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>11.5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>0.34</v>
       </c>
       <c r="B48">
@@ -49008,12 +48132,12 @@
       <c r="C48">
         <v>138</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>13.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>0.33</v>
       </c>
       <c r="B49">
@@ -49022,12 +48146,12 @@
       <c r="C49">
         <v>153</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>15.3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>0.32</v>
       </c>
       <c r="B50">
@@ -49036,12 +48160,12 @@
       <c r="C50">
         <v>179</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>17.899999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>0.31</v>
       </c>
       <c r="B51">
@@ -49050,12 +48174,12 @@
       <c r="C51">
         <v>231</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>23.1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>0.3</v>
       </c>
       <c r="B52">
@@ -49064,12 +48188,12 @@
       <c r="C52">
         <v>262</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>26.2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>0.28999999999999998</v>
       </c>
       <c r="B53">
@@ -49078,12 +48202,12 @@
       <c r="C53">
         <v>276</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>27.6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>0.28000000000000003</v>
       </c>
       <c r="B54">
@@ -49092,12 +48216,12 @@
       <c r="C54">
         <v>324</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>32.4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>0.27</v>
       </c>
       <c r="B55">
@@ -49106,12 +48230,12 @@
       <c r="C55">
         <v>329</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>32.9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>0.26</v>
       </c>
       <c r="B56">
@@ -49120,12 +48244,12 @@
       <c r="C56">
         <v>389</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>38.9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>0.25</v>
       </c>
       <c r="B57">
@@ -49134,12 +48258,12 @@
       <c r="C57">
         <v>395</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>39.5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>0.24</v>
       </c>
       <c r="B58">
@@ -49148,12 +48272,12 @@
       <c r="C58">
         <v>414</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>41.4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>0.23</v>
       </c>
       <c r="B59">
@@ -49162,12 +48286,12 @@
       <c r="C59">
         <v>423</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>42.3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>0.22</v>
       </c>
       <c r="B60">
@@ -49176,12 +48300,12 @@
       <c r="C60">
         <v>448</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>44.8</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>0.21</v>
       </c>
       <c r="B61">
@@ -49190,12 +48314,12 @@
       <c r="C61">
         <v>462</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>46.2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>0.2</v>
       </c>
       <c r="B62">
@@ -49204,12 +48328,12 @@
       <c r="C62">
         <v>428</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>42.8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>0.19</v>
       </c>
       <c r="B63">
@@ -49218,12 +48342,12 @@
       <c r="C63">
         <v>520</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>0.18</v>
       </c>
       <c r="B64">
@@ -49232,12 +48356,12 @@
       <c r="C64">
         <v>468</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>46.8</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>0.17</v>
       </c>
       <c r="B65">
@@ -49246,12 +48370,12 @@
       <c r="C65">
         <v>471</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>47.1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>0.16</v>
       </c>
       <c r="B66">
@@ -49260,12 +48384,12 @@
       <c r="C66">
         <v>490</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>0.15</v>
       </c>
       <c r="B67">
@@ -49274,12 +48398,12 @@
       <c r="C67">
         <v>503</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>50.3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>0.14000000000000001</v>
       </c>
       <c r="B68">
@@ -49288,12 +48412,12 @@
       <c r="C68">
         <v>480</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>0.13</v>
       </c>
       <c r="B69">
@@ -49302,12 +48426,12 @@
       <c r="C69">
         <v>502</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>50.2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>0.12</v>
       </c>
       <c r="B70">
@@ -49316,12 +48440,12 @@
       <c r="C70">
         <v>532</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>53.2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>0.11</v>
       </c>
       <c r="B71">
@@ -49330,12 +48454,12 @@
       <c r="C71">
         <v>501</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>50.1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>0.1</v>
       </c>
       <c r="B72">
@@ -49344,12 +48468,12 @@
       <c r="C72">
         <v>491</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>49.1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>0.09</v>
       </c>
       <c r="B73">
@@ -49358,12 +48482,12 @@
       <c r="C73">
         <v>510</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>0.08</v>
       </c>
       <c r="B74">
@@ -49372,12 +48496,12 @@
       <c r="C74">
         <v>502</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>50.2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B75">
@@ -49386,12 +48510,12 @@
       <c r="C75">
         <v>535</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>53.5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>0.06</v>
       </c>
       <c r="B76">
@@ -49400,12 +48524,12 @@
       <c r="C76">
         <v>498</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>49.8</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>0.05</v>
       </c>
       <c r="B77">
@@ -49414,12 +48538,12 @@
       <c r="C77">
         <v>519</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>51.9</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>0.04</v>
       </c>
       <c r="B78">
@@ -49428,12 +48552,12 @@
       <c r="C78">
         <v>519</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>51.9</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>0.03</v>
       </c>
       <c r="B79">
@@ -49442,12 +48566,12 @@
       <c r="C79">
         <v>471</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>47.1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>0.02</v>
       </c>
       <c r="B80">
@@ -49456,12 +48580,12 @@
       <c r="C80">
         <v>485</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>48.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>0.01</v>
       </c>
       <c r="B81">
@@ -49470,7 +48594,7 @@
       <c r="C81">
         <v>492</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>49.2</v>
       </c>
     </row>
@@ -49511,7 +48635,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.8</v>
       </c>
       <c r="B2">
@@ -49520,12 +48644,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.79</v>
       </c>
       <c r="B3">
@@ -49534,12 +48658,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.78</v>
       </c>
       <c r="B4">
@@ -49548,12 +48672,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.77</v>
       </c>
       <c r="B5">
@@ -49562,12 +48686,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.76</v>
       </c>
       <c r="B6">
@@ -49576,12 +48700,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7">
@@ -49590,12 +48714,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.74</v>
       </c>
       <c r="B8">
@@ -49604,12 +48728,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.73</v>
       </c>
       <c r="B9">
@@ -49618,12 +48742,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.72</v>
       </c>
       <c r="B10">
@@ -49632,12 +48756,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.71</v>
       </c>
       <c r="B11">
@@ -49646,12 +48770,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.7</v>
       </c>
       <c r="B12">
@@ -49660,12 +48784,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.69</v>
       </c>
       <c r="B13">
@@ -49674,12 +48798,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.68</v>
       </c>
       <c r="B14">
@@ -49688,12 +48812,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>0.67</v>
       </c>
       <c r="B15">
@@ -49702,12 +48826,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>0.66</v>
       </c>
       <c r="B16">
@@ -49716,12 +48840,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
@@ -49730,12 +48854,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>0.64</v>
       </c>
       <c r="B18">
@@ -49744,12 +48868,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>0.63</v>
       </c>
       <c r="B19">
@@ -49758,12 +48882,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>0.62</v>
       </c>
       <c r="B20">
@@ -49772,12 +48896,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>0.61</v>
       </c>
       <c r="B21">
@@ -49786,12 +48910,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>0.6</v>
       </c>
       <c r="B22">
@@ -49800,12 +48924,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>0.59</v>
       </c>
       <c r="B23">
@@ -49814,12 +48938,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>0.57999999999999996</v>
       </c>
       <c r="B24">
@@ -49828,12 +48952,12 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>0.56999999999999995</v>
       </c>
       <c r="B25">
@@ -49842,12 +48966,12 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>0.56000000000000005</v>
       </c>
       <c r="B26">
@@ -49856,12 +48980,12 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>0.55000000000000004</v>
       </c>
       <c r="B27">
@@ -49870,12 +48994,12 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>0.54</v>
       </c>
       <c r="B28">
@@ -49884,12 +49008,12 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>0.53</v>
       </c>
       <c r="B29">
@@ -49898,12 +49022,12 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>0.52</v>
       </c>
       <c r="B30">
@@ -49912,12 +49036,12 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>0.51</v>
       </c>
       <c r="B31">
@@ -49926,12 +49050,12 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32">
@@ -49940,12 +49064,12 @@
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>0.49</v>
       </c>
       <c r="B33">
@@ -49954,12 +49078,12 @@
       <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>0.48</v>
       </c>
       <c r="B34">
@@ -49968,12 +49092,12 @@
       <c r="C34">
         <v>6</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>0.47</v>
       </c>
       <c r="B35">
@@ -49982,12 +49106,12 @@
       <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>0.46</v>
       </c>
       <c r="B36">
@@ -49996,12 +49120,12 @@
       <c r="C36">
         <v>11</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>0.45</v>
       </c>
       <c r="B37">
@@ -50010,12 +49134,12 @@
       <c r="C37">
         <v>24</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>0.44</v>
       </c>
       <c r="B38">
@@ -50024,12 +49148,12 @@
       <c r="C38">
         <v>27</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1.35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>0.43</v>
       </c>
       <c r="B39">
@@ -50038,12 +49162,12 @@
       <c r="C39">
         <v>33</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>1.65</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>0.42</v>
       </c>
       <c r="B40">
@@ -50052,12 +49176,12 @@
       <c r="C40">
         <v>37</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>1.85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>0.41</v>
       </c>
       <c r="B41">
@@ -50066,12 +49190,12 @@
       <c r="C41">
         <v>48</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>2.4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
@@ -50080,12 +49204,12 @@
       <c r="C42">
         <v>70</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>0.39</v>
       </c>
       <c r="B43">
@@ -50094,12 +49218,12 @@
       <c r="C43">
         <v>109</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>5.45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>0.38</v>
       </c>
       <c r="B44">
@@ -50108,12 +49232,12 @@
       <c r="C44">
         <v>120</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>0.37</v>
       </c>
       <c r="B45">
@@ -50122,12 +49246,12 @@
       <c r="C45">
         <v>145</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>7.25</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>0.36</v>
       </c>
       <c r="B46">
@@ -50136,12 +49260,12 @@
       <c r="C46">
         <v>178</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>8.9</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>0.35</v>
       </c>
       <c r="B47">
@@ -50150,12 +49274,12 @@
       <c r="C47">
         <v>202</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>10.1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>0.34</v>
       </c>
       <c r="B48">
@@ -50164,12 +49288,12 @@
       <c r="C48">
         <v>267</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>13.35</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>0.33</v>
       </c>
       <c r="B49">
@@ -50178,12 +49302,12 @@
       <c r="C49">
         <v>324</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>16.2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>0.32</v>
       </c>
       <c r="B50">
@@ -50192,12 +49316,12 @@
       <c r="C50">
         <v>389</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>19.45</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>0.31</v>
       </c>
       <c r="B51">
@@ -50206,12 +49330,12 @@
       <c r="C51">
         <v>431</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>21.55</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>0.3</v>
       </c>
       <c r="B52">
@@ -50220,12 +49344,12 @@
       <c r="C52">
         <v>527</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>26.35</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>0.28999999999999998</v>
       </c>
       <c r="B53">
@@ -50234,12 +49358,12 @@
       <c r="C53">
         <v>586</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>29.3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>0.28000000000000003</v>
       </c>
       <c r="B54">
@@ -50248,12 +49372,12 @@
       <c r="C54">
         <v>661</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>33.049999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>0.27</v>
       </c>
       <c r="B55">
@@ -50262,12 +49386,12 @@
       <c r="C55">
         <v>727</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>36.35</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>0.26</v>
       </c>
       <c r="B56">
@@ -50276,12 +49400,12 @@
       <c r="C56">
         <v>755</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>37.75</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>0.25</v>
       </c>
       <c r="B57">
@@ -50290,12 +49414,12 @@
       <c r="C57">
         <v>810</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>40.5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>0.24</v>
       </c>
       <c r="B58">
@@ -50304,12 +49428,12 @@
       <c r="C58">
         <v>855</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>42.75</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>0.23</v>
       </c>
       <c r="B59">
@@ -50318,12 +49442,12 @@
       <c r="C59">
         <v>866</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>43.3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>0.22</v>
       </c>
       <c r="B60">
@@ -50332,12 +49456,12 @@
       <c r="C60">
         <v>859</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>42.95</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>0.21</v>
       </c>
       <c r="B61">
@@ -50346,12 +49470,12 @@
       <c r="C61">
         <v>918</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>45.9</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>0.2</v>
       </c>
       <c r="B62">
@@ -50360,12 +49484,12 @@
       <c r="C62">
         <v>920</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>0.19</v>
       </c>
       <c r="B63">
@@ -50374,12 +49498,12 @@
       <c r="C63">
         <v>961</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>48.05</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>0.18</v>
       </c>
       <c r="B64">
@@ -50388,12 +49512,12 @@
       <c r="C64">
         <v>990</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>49.5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>0.17</v>
       </c>
       <c r="B65">
@@ -50402,12 +49526,12 @@
       <c r="C65">
         <v>979</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>48.95</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>0.16</v>
       </c>
       <c r="B66">
@@ -50416,12 +49540,12 @@
       <c r="C66">
         <v>947</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>47.35</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>0.15</v>
       </c>
       <c r="B67">
@@ -50430,12 +49554,12 @@
       <c r="C67">
         <v>967</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>48.35</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>0.14000000000000001</v>
       </c>
       <c r="B68">
@@ -50444,12 +49568,12 @@
       <c r="C68">
         <v>1019</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>50.95</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>0.13</v>
       </c>
       <c r="B69">
@@ -50458,12 +49582,12 @@
       <c r="C69">
         <v>1038</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>51.9</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>0.12</v>
       </c>
       <c r="B70">
@@ -50472,12 +49596,12 @@
       <c r="C70">
         <v>987</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>49.35</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>0.11</v>
       </c>
       <c r="B71">
@@ -50486,12 +49610,12 @@
       <c r="C71">
         <v>989</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>49.45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>0.1</v>
       </c>
       <c r="B72">
@@ -50500,12 +49624,12 @@
       <c r="C72">
         <v>961</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>48.05</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>0.09</v>
       </c>
       <c r="B73">
@@ -50514,12 +49638,12 @@
       <c r="C73">
         <v>1007</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>50.35</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>0.08</v>
       </c>
       <c r="B74">
@@ -50528,12 +49652,12 @@
       <c r="C74">
         <v>1025</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>51.25</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B75">
@@ -50542,12 +49666,12 @@
       <c r="C75">
         <v>984</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>49.2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>0.06</v>
       </c>
       <c r="B76">
@@ -50556,12 +49680,12 @@
       <c r="C76">
         <v>961</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>48.05</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>0.05</v>
       </c>
       <c r="B77">
@@ -50570,12 +49694,12 @@
       <c r="C77">
         <v>1011</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>50.55</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>0.04</v>
       </c>
       <c r="B78">
@@ -50584,12 +49708,12 @@
       <c r="C78">
         <v>1023</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>51.15</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>0.03</v>
       </c>
       <c r="B79">
@@ -50598,12 +49722,12 @@
       <c r="C79">
         <v>1024</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>51.2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>0.02</v>
       </c>
       <c r="B80">
@@ -50612,12 +49736,12 @@
       <c r="C80">
         <v>1021</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>51.05</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>0.01</v>
       </c>
       <c r="B81">
@@ -50626,7 +49750,7 @@
       <c r="C81">
         <v>973</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>48.65</v>
       </c>
     </row>
@@ -50667,7 +49791,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.8</v>
       </c>
       <c r="B2">
@@ -50676,12 +49800,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.79</v>
       </c>
       <c r="B3">
@@ -50690,12 +49814,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.78</v>
       </c>
       <c r="B4">
@@ -50704,12 +49828,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.77</v>
       </c>
       <c r="B5">
@@ -50718,12 +49842,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.76</v>
       </c>
       <c r="B6">
@@ -50732,12 +49856,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7">
@@ -50746,12 +49870,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.74</v>
       </c>
       <c r="B8">
@@ -50760,12 +49884,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.73</v>
       </c>
       <c r="B9">
@@ -50774,12 +49898,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.72</v>
       </c>
       <c r="B10">
@@ -50788,12 +49912,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.71</v>
       </c>
       <c r="B11">
@@ -50802,12 +49926,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.7</v>
       </c>
       <c r="B12">
@@ -50816,12 +49940,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.69</v>
       </c>
       <c r="B13">
@@ -50830,12 +49954,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.68</v>
       </c>
       <c r="B14">
@@ -50844,12 +49968,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>0.67</v>
       </c>
       <c r="B15">
@@ -50858,12 +49982,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>0.66</v>
       </c>
       <c r="B16">
@@ -50872,12 +49996,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
@@ -50886,12 +50010,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>0.64</v>
       </c>
       <c r="B18">
@@ -50900,12 +50024,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>0.63</v>
       </c>
       <c r="B19">
@@ -50914,12 +50038,12 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>0.62</v>
       </c>
       <c r="B20">
@@ -50928,12 +50052,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>0.61</v>
       </c>
       <c r="B21">
@@ -50942,12 +50066,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>0.6</v>
       </c>
       <c r="B22">
@@ -50956,12 +50080,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>0.59</v>
       </c>
       <c r="B23">
@@ -50970,12 +50094,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>0.57999999999999996</v>
       </c>
       <c r="B24">
@@ -50984,12 +50108,12 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0.03</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>0.56999999999999995</v>
       </c>
       <c r="B25">
@@ -50998,12 +50122,12 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>0.56000000000000005</v>
       </c>
       <c r="B26">
@@ -51012,12 +50136,12 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>0.55000000000000004</v>
       </c>
       <c r="B27">
@@ -51026,12 +50150,12 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>0.54</v>
       </c>
       <c r="B28">
@@ -51040,12 +50164,12 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>0.53</v>
       </c>
       <c r="B29">
@@ -51054,12 +50178,12 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>0.52</v>
       </c>
       <c r="B30">
@@ -51068,12 +50192,12 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>0.51</v>
       </c>
       <c r="B31">
@@ -51082,12 +50206,12 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32">
@@ -51096,12 +50220,12 @@
       <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>0.49</v>
       </c>
       <c r="B33">
@@ -51110,12 +50234,12 @@
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0.33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>0.48</v>
       </c>
       <c r="B34">
@@ -51124,12 +50248,12 @@
       <c r="C34">
         <v>11</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0.37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>0.47</v>
       </c>
       <c r="B35">
@@ -51138,12 +50262,12 @@
       <c r="C35">
         <v>12</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>0.46</v>
       </c>
       <c r="B36">
@@ -51152,12 +50276,12 @@
       <c r="C36">
         <v>24</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>0.45</v>
       </c>
       <c r="B37">
@@ -51166,12 +50290,12 @@
       <c r="C37">
         <v>27</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>0.44</v>
       </c>
       <c r="B38">
@@ -51180,12 +50304,12 @@
       <c r="C38">
         <v>40</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>1.33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>0.43</v>
       </c>
       <c r="B39">
@@ -51194,12 +50318,12 @@
       <c r="C39">
         <v>44</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>1.47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>0.42</v>
       </c>
       <c r="B40">
@@ -51208,12 +50332,12 @@
       <c r="C40">
         <v>53</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>1.77</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>0.41</v>
       </c>
       <c r="B41">
@@ -51222,12 +50346,12 @@
       <c r="C41">
         <v>68</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>2.27</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
@@ -51236,12 +50360,12 @@
       <c r="C42">
         <v>93</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>3.1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>0.39</v>
       </c>
       <c r="B43">
@@ -51250,12 +50374,12 @@
       <c r="C43">
         <v>149</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>4.97</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>0.38</v>
       </c>
       <c r="B44">
@@ -51264,12 +50388,12 @@
       <c r="C44">
         <v>162</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>5.4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>0.37</v>
       </c>
       <c r="B45">
@@ -51278,12 +50402,12 @@
       <c r="C45">
         <v>203</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>6.77</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>0.36</v>
       </c>
       <c r="B46">
@@ -51292,12 +50416,12 @@
       <c r="C46">
         <v>293</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>9.77</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>0.35</v>
       </c>
       <c r="B47">
@@ -51306,12 +50430,12 @@
       <c r="C47">
         <v>323</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>10.77</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>0.34</v>
       </c>
       <c r="B48">
@@ -51320,12 +50444,12 @@
       <c r="C48">
         <v>426</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>14.2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>0.33</v>
       </c>
       <c r="B49">
@@ -51334,12 +50458,12 @@
       <c r="C49">
         <v>458</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>15.27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>0.32</v>
       </c>
       <c r="B50">
@@ -51348,12 +50472,12 @@
       <c r="C50">
         <v>595</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>19.829999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>0.31</v>
       </c>
       <c r="B51">
@@ -51362,12 +50486,12 @@
       <c r="C51">
         <v>702</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>23.4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>0.3</v>
       </c>
       <c r="B52">
@@ -51376,12 +50500,12 @@
       <c r="C52">
         <v>783</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>26.1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>0.28999999999999998</v>
       </c>
       <c r="B53">
@@ -51390,12 +50514,12 @@
       <c r="C53">
         <v>874</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>29.13</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>0.28000000000000003</v>
       </c>
       <c r="B54">
@@ -51404,12 +50528,12 @@
       <c r="C54">
         <v>930</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>0.27</v>
       </c>
       <c r="B55">
@@ -51418,12 +50542,12 @@
       <c r="C55">
         <v>1014</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>33.799999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>0.26</v>
       </c>
       <c r="B56">
@@ -51432,12 +50556,12 @@
       <c r="C56">
         <v>1173</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>39.1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>0.25</v>
       </c>
       <c r="B57">
@@ -51446,12 +50570,12 @@
       <c r="C57">
         <v>1230</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>0.24</v>
       </c>
       <c r="B58">
@@ -51460,12 +50584,12 @@
       <c r="C58">
         <v>1242</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>41.4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>0.23</v>
       </c>
       <c r="B59">
@@ -51474,12 +50598,12 @@
       <c r="C59">
         <v>1327</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>44.23</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>0.22</v>
       </c>
       <c r="B60">
@@ -51488,12 +50612,12 @@
       <c r="C60">
         <v>1315</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>43.83</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>0.21</v>
       </c>
       <c r="B61">
@@ -51502,12 +50626,12 @@
       <c r="C61">
         <v>1386</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>46.2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>0.2</v>
       </c>
       <c r="B62">
@@ -51516,12 +50640,12 @@
       <c r="C62">
         <v>1396</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>46.53</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>0.19</v>
       </c>
       <c r="B63">
@@ -51530,12 +50654,12 @@
       <c r="C63">
         <v>1451</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>48.37</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>0.18</v>
       </c>
       <c r="B64">
@@ -51544,12 +50668,12 @@
       <c r="C64">
         <v>1458</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>48.6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>0.17</v>
       </c>
       <c r="B65">
@@ -51558,12 +50682,12 @@
       <c r="C65">
         <v>1463</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>48.77</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>0.16</v>
       </c>
       <c r="B66">
@@ -51572,12 +50696,12 @@
       <c r="C66">
         <v>1482</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>49.4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>0.15</v>
       </c>
       <c r="B67">
@@ -51586,12 +50710,12 @@
       <c r="C67">
         <v>1512</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>50.4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>0.14000000000000001</v>
       </c>
       <c r="B68">
@@ -51600,12 +50724,12 @@
       <c r="C68">
         <v>1464</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>48.8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>0.13</v>
       </c>
       <c r="B69">
@@ -51614,12 +50738,12 @@
       <c r="C69">
         <v>1461</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>48.7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>0.12</v>
       </c>
       <c r="B70">
@@ -51628,12 +50752,12 @@
       <c r="C70">
         <v>1459</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>48.63</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>0.11</v>
       </c>
       <c r="B71">
@@ -51642,12 +50766,12 @@
       <c r="C71">
         <v>1550</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>51.67</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>0.1</v>
       </c>
       <c r="B72">
@@ -51656,12 +50780,12 @@
       <c r="C72">
         <v>1521</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>50.7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>0.09</v>
       </c>
       <c r="B73">
@@ -51670,12 +50794,12 @@
       <c r="C73">
         <v>1482</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>49.4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>0.08</v>
       </c>
       <c r="B74">
@@ -51684,12 +50808,12 @@
       <c r="C74">
         <v>1498</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>49.93</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B75">
@@ -51698,12 +50822,12 @@
       <c r="C75">
         <v>1453</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>48.43</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>0.06</v>
       </c>
       <c r="B76">
@@ -51712,12 +50836,12 @@
       <c r="C76">
         <v>1542</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>51.4</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>0.05</v>
       </c>
       <c r="B77">
@@ -51726,12 +50850,12 @@
       <c r="C77">
         <v>1519</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>50.63</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>0.04</v>
       </c>
       <c r="B78">
@@ -51740,12 +50864,12 @@
       <c r="C78">
         <v>1568</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>52.27</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>0.03</v>
       </c>
       <c r="B79">
@@ -51754,12 +50878,12 @@
       <c r="C79">
         <v>1503</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>50.1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>0.02</v>
       </c>
       <c r="B80">
@@ -51768,12 +50892,12 @@
       <c r="C80">
         <v>1463</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>48.77</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>0.01</v>
       </c>
       <c r="B81">
@@ -51782,7 +50906,7 @@
       <c r="C81">
         <v>1469</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>48.97</v>
       </c>
     </row>
@@ -51799,7 +50923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567908C0-E53F-41F6-B60A-AC3DF79DFF28}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -51823,7 +50947,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>0.8</v>
       </c>
       <c r="B2">
@@ -51832,12 +50956,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>0.79</v>
       </c>
       <c r="B3">
@@ -51846,12 +50970,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>0.78</v>
       </c>
       <c r="B4">
@@ -51860,12 +50984,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>0.77</v>
       </c>
       <c r="B5">
@@ -51874,12 +50998,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>0.76</v>
       </c>
       <c r="B6">
@@ -51888,12 +51012,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>0.75</v>
       </c>
       <c r="B7">
@@ -51902,12 +51026,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>0.74</v>
       </c>
       <c r="B8">
@@ -51916,12 +51040,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>0.73</v>
       </c>
       <c r="B9">
@@ -51930,12 +51054,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>0.72</v>
       </c>
       <c r="B10">
@@ -51944,12 +51068,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>0.71</v>
       </c>
       <c r="B11">
@@ -51958,12 +51082,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>0.7</v>
       </c>
       <c r="B12">
@@ -51972,12 +51096,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>0.69</v>
       </c>
       <c r="B13">
@@ -51986,12 +51110,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>0.68</v>
       </c>
       <c r="B14">
@@ -52000,12 +51124,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>0.67</v>
       </c>
       <c r="B15">
@@ -52014,12 +51138,12 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>0.66</v>
       </c>
       <c r="B16">
@@ -52028,12 +51152,12 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
@@ -52042,12 +51166,12 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>0.64</v>
       </c>
       <c r="B18">
@@ -52056,12 +51180,12 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>0.63</v>
       </c>
       <c r="B19">
@@ -52070,12 +51194,12 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>0.62</v>
       </c>
       <c r="B20">
@@ -52084,12 +51208,12 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>0.61</v>
       </c>
       <c r="B21">
@@ -52098,12 +51222,12 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>0.6</v>
       </c>
       <c r="B22">
@@ -52112,12 +51236,12 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>0.59</v>
       </c>
       <c r="B23">
@@ -52126,12 +51250,12 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>0.57999999999999996</v>
       </c>
       <c r="B24">
@@ -52140,12 +51264,12 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>0.56999999999999995</v>
       </c>
       <c r="B25">
@@ -52154,12 +51278,12 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>0.56000000000000005</v>
       </c>
       <c r="B26">
@@ -52168,12 +51292,12 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>0.55000000000000004</v>
       </c>
       <c r="B27">
@@ -52182,12 +51306,12 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>0.04</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>0.54</v>
       </c>
       <c r="B28">
@@ -52196,12 +51320,12 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>0.53</v>
       </c>
       <c r="B29">
@@ -52210,12 +51334,12 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>0.52</v>
       </c>
       <c r="B30">
@@ -52224,12 +51348,12 @@
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>0.51</v>
       </c>
       <c r="B31">
@@ -52238,12 +51362,12 @@
       <c r="C31">
         <v>10</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>0.5</v>
       </c>
       <c r="B32">
@@ -52252,12 +51376,12 @@
       <c r="C32">
         <v>11</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>0.22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>0.49</v>
       </c>
       <c r="B33">
@@ -52266,12 +51390,12 @@
       <c r="C33">
         <v>11</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>0.22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>0.48</v>
       </c>
       <c r="B34">
@@ -52280,12 +51404,12 @@
       <c r="C34">
         <v>23</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>0.46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>0.47</v>
       </c>
       <c r="B35">
@@ -52294,12 +51418,12 @@
       <c r="C35">
         <v>26</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>0.52</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>0.46</v>
       </c>
       <c r="B36">
@@ -52308,12 +51432,12 @@
       <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>0.68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>0.45</v>
       </c>
       <c r="B37">
@@ -52322,12 +51446,12 @@
       <c r="C37">
         <v>41</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0.82</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>0.44</v>
       </c>
       <c r="B38">
@@ -52336,12 +51460,12 @@
       <c r="C38">
         <v>47</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>0.94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>0.43</v>
       </c>
       <c r="B39">
@@ -52350,12 +51474,12 @@
       <c r="C39">
         <v>81</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>1.62</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>0.42</v>
       </c>
       <c r="B40">
@@ -52364,12 +51488,12 @@
       <c r="C40">
         <v>110</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>0.41</v>
       </c>
       <c r="B41">
@@ -52378,12 +51502,12 @@
       <c r="C41">
         <v>148</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>2.96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>0.4</v>
       </c>
       <c r="B42">
@@ -52392,12 +51516,12 @@
       <c r="C42">
         <v>159</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>3.18</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>0.39</v>
       </c>
       <c r="B43">
@@ -52406,12 +51530,12 @@
       <c r="C43">
         <v>244</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>4.88</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>0.38</v>
       </c>
       <c r="B44">
@@ -52420,12 +51544,12 @@
       <c r="C44">
         <v>298</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>5.96</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>0.37</v>
       </c>
       <c r="B45">
@@ -52434,12 +51558,12 @@
       <c r="C45">
         <v>355</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>7.1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>0.36</v>
       </c>
       <c r="B46">
@@ -52448,12 +51572,12 @@
       <c r="C46">
         <v>435</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>0.35</v>
       </c>
       <c r="B47">
@@ -52462,12 +51586,12 @@
       <c r="C47">
         <v>554</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>11.08</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>0.34</v>
       </c>
       <c r="B48">
@@ -52476,12 +51600,12 @@
       <c r="C48">
         <v>715</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>14.3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>0.33</v>
       </c>
       <c r="B49">
@@ -52490,12 +51614,12 @@
       <c r="C49">
         <v>803</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>16.059999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>0.32</v>
       </c>
       <c r="B50">
@@ -52504,12 +51628,12 @@
       <c r="C50">
         <v>900</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>0.31</v>
       </c>
       <c r="B51">
@@ -52518,12 +51642,12 @@
       <c r="C51">
         <v>1064</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>21.28</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>0.3</v>
       </c>
       <c r="B52">
@@ -52532,12 +51656,12 @@
       <c r="C52">
         <v>1316</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>26.32</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>0.28999999999999998</v>
       </c>
       <c r="B53">
@@ -52546,12 +51670,12 @@
       <c r="C53">
         <v>1410</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>28.2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>0.28000000000000003</v>
       </c>
       <c r="B54">
@@ -52560,12 +51684,12 @@
       <c r="C54">
         <v>1612</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>32.24</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>0.27</v>
       </c>
       <c r="B55">
@@ -52574,12 +51698,12 @@
       <c r="C55">
         <v>1769</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>35.380000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>0.26</v>
       </c>
       <c r="B56">
@@ -52588,12 +51712,12 @@
       <c r="C56">
         <v>1854</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>37.08</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>0.25</v>
       </c>
       <c r="B57">
@@ -52602,12 +51726,12 @@
       <c r="C57">
         <v>2030</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>40.6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>0.24</v>
       </c>
       <c r="B58">
@@ -52616,12 +51740,12 @@
       <c r="C58">
         <v>2090</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>41.8</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>0.23</v>
       </c>
       <c r="B59">
@@ -52630,12 +51754,12 @@
       <c r="C59">
         <v>2256</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>45.12</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>0.22</v>
       </c>
       <c r="B60">
@@ -52644,12 +51768,12 @@
       <c r="C60">
         <v>2165</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>43.3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>0.21</v>
       </c>
       <c r="B61">
@@ -52658,12 +51782,12 @@
       <c r="C61">
         <v>2318</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>46.36</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>0.2</v>
       </c>
       <c r="B62">
@@ -52672,12 +51796,12 @@
       <c r="C62">
         <v>2418</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>48.36</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>0.19</v>
       </c>
       <c r="B63">
@@ -52686,12 +51810,12 @@
       <c r="C63">
         <v>2372</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>47.44</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>0.18</v>
       </c>
       <c r="B64">
@@ -52700,12 +51824,12 @@
       <c r="C64">
         <v>2412</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>48.24</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>0.17</v>
       </c>
       <c r="B65">
@@ -52714,12 +51838,12 @@
       <c r="C65">
         <v>2397</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>47.94</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>0.16</v>
       </c>
       <c r="B66">
@@ -52728,12 +51852,12 @@
       <c r="C66">
         <v>2469</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>49.38</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>0.15</v>
       </c>
       <c r="B67">
@@ -52742,12 +51866,12 @@
       <c r="C67">
         <v>2508</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>50.16</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>0.14000000000000001</v>
       </c>
       <c r="B68">
@@ -52756,12 +51880,12 @@
       <c r="C68">
         <v>2501</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>50.02</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>0.13</v>
       </c>
       <c r="B69">
@@ -52770,12 +51894,12 @@
       <c r="C69">
         <v>2462</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>49.24</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>0.12</v>
       </c>
       <c r="B70">
@@ -52784,12 +51908,12 @@
       <c r="C70">
         <v>2440</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>48.8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>0.11</v>
       </c>
       <c r="B71">
@@ -52798,12 +51922,12 @@
       <c r="C71">
         <v>2489</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>49.78</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>0.1</v>
       </c>
       <c r="B72">
@@ -52812,12 +51936,12 @@
       <c r="C72">
         <v>2508</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>50.16</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73">
         <v>0.09</v>
       </c>
       <c r="B73">
@@ -52826,12 +51950,12 @@
       <c r="C73">
         <v>2506</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>50.12</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74">
         <v>0.08</v>
       </c>
       <c r="B74">
@@ -52840,12 +51964,12 @@
       <c r="C74">
         <v>2496</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>49.92</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B75">
@@ -52854,12 +51978,12 @@
       <c r="C75">
         <v>2515</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>50.3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76">
         <v>0.06</v>
       </c>
       <c r="B76">
@@ -52868,12 +51992,12 @@
       <c r="C76">
         <v>2446</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>48.92</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77">
         <v>0.05</v>
       </c>
       <c r="B77">
@@ -52882,12 +52006,12 @@
       <c r="C77">
         <v>2498</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>49.96</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="A78">
         <v>0.04</v>
       </c>
       <c r="B78">
@@ -52896,12 +52020,12 @@
       <c r="C78">
         <v>2494</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>49.88</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="A79">
         <v>0.03</v>
       </c>
       <c r="B79">
@@ -52910,12 +52034,12 @@
       <c r="C79">
         <v>2476</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>49.52</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="A80">
         <v>0.02</v>
       </c>
       <c r="B80">
@@ -52924,12 +52048,12 @@
       <c r="C80">
         <v>2485</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>49.7</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="A81">
         <v>0.01</v>
       </c>
       <c r="B81">
@@ -52938,7 +52062,7 @@
       <c r="C81">
         <v>2559</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>51.18</v>
       </c>
     </row>
